--- a/Datasets/Scoring for ARIMA/Scores/Brazil scores.xlsx
+++ b/Datasets/Scoring for ARIMA/Scores/Brazil scores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\DS-Assignment\Datasets\Scoring for ARIMA\Scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710F6F05-E35C-473C-82C6-60402C7517B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D053BF22-43E3-4223-BE2D-B423CEB8936A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="3017" windowWidth="23983" windowHeight="13594" xr2:uid="{A81DBB92-2E20-464F-9FA7-4188991DBF37}"/>
+    <workbookView xWindow="1663" yWindow="720" windowWidth="23983" windowHeight="13594" xr2:uid="{A81DBB92-2E20-464F-9FA7-4188991DBF37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -615,6 +615,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>